--- a/doc/needed/analysis_result_ex.xlsx
+++ b/doc/needed/analysis_result_ex.xlsx
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="U2">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(-1,-1)_LION1_DCM_LMZC.png", "HY202103_D07_(-1,-1)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(-1,-1)_LION1_DCM_LMZC.png", "HY202103_D07_(-1,-1)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="U3">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(-1,-3)_LION1_DCM_LMZC.png", "HY202103_D07_(-1,-3)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(-1,-3)_LION1_DCM_LMZC.png", "HY202103_D07_(-1,-3)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="U4">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(-1,3)_LION1_DCM_LMZC.png", "HY202103_D07_(-1,3)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(-1,3)_LION1_DCM_LMZC.png", "HY202103_D07_(-1,3)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="U5">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(-3,-3)_LION1_DCM_LMZC.png", "HY202103_D07_(-3,-3)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(-3,-3)_LION1_DCM_LMZC.png", "HY202103_D07_(-3,-3)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U6">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(-3,0)_LION1_DCM_LMZC.png", "HY202103_D07_(-3,0)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(-3,0)_LION1_DCM_LMZC.png", "HY202103_D07_(-3,0)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="U7">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(-3,2)_LION1_DCM_LMZC.png", "HY202103_D07_(-3,2)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(-3,2)_LION1_DCM_LMZC.png", "HY202103_D07_(-3,2)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="U8">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(-4,-1)_LION1_DCM_LMZC.png", "HY202103_D07_(-4,-1)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(-4,-1)_LION1_DCM_LMZC.png", "HY202103_D07_(-4,-1)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="U9">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(0,-4)_LION1_DCM_LMZC.png", "HY202103_D07_(0,-4)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(0,-4)_LION1_DCM_LMZC.png", "HY202103_D07_(0,-4)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="U10">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(0,0)_LION1_DCM_LMZC.png", "HY202103_D07_(0,0)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(0,0)_LION1_DCM_LMZC.png", "HY202103_D07_(0,0)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
         </is>
       </c>
       <c r="U11">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(0,2)_LION1_DCM_LMZC.png", "HY202103_D07_(0,2)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(0,2)_LION1_DCM_LMZC.png", "HY202103_D07_(0,2)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="U12">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(2,-1)_LION1_DCM_LMZC.png", "HY202103_D07_(2,-1)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(2,-1)_LION1_DCM_LMZC.png", "HY202103_D07_(2,-1)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="U13">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(2,-3)_LION1_DCM_LMZC.png", "HY202103_D07_(2,-3)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(2,-3)_LION1_DCM_LMZC.png", "HY202103_D07_(2,-3)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="U14">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(2,2)_LION1_DCM_LMZC.png", "HY202103_D07_(2,2)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(2,2)_LION1_DCM_LMZC.png", "HY202103_D07_(2,2)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="U15">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D07/20190715_190855/HY202103_D07_(3,0)_LION1_DCM_LMZC.png", "HY202103_D07_(3,0)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D07/20190715_190855/HY202103_D07_(3,0)_LION1_DCM_LMZC.png", "HY202103_D07_(3,0)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="U16">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D08_(-1,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D08_(-1,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="U17">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D08_(-1,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D08_(-1,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="U18">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D08_(-1,3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D08_(-1,3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="U19">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D08_(-3,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D08_(-3,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="U20">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D08_(-3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D08_(-3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="U21">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D08_(-3,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D08_(-3,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
         </is>
       </c>
       <c r="U22">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D08_(-4,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D08_(-4,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="U23">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D08_(0,-4)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D08_(0,-4)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="U24">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(0,0)_LION1_DCM_LMZO.png", "HY202103_D08_(0,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(0,0)_LION1_DCM_LMZO.png", "HY202103_D08_(0,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
         </is>
       </c>
       <c r="U25">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(0,2)_LION1_DCM_LMZO.png", "HY202103_D08_(0,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(0,2)_LION1_DCM_LMZO.png", "HY202103_D08_(0,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
         </is>
       </c>
       <c r="U26">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D08_(2,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D08_(2,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="U27">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D08_(2,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D08_(2,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="U28">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(2,2)_LION1_DCM_LMZO.png", "HY202103_D08_(2,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(2,2)_LION1_DCM_LMZO.png", "HY202103_D08_(2,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
         </is>
       </c>
       <c r="U29">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190526_082853/HY202103_D08_(3,0)_LION1_DCM_LMZO.png", "HY202103_D08_(3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190526_082853/HY202103_D08_(3,0)_LION1_DCM_LMZO.png", "HY202103_D08_(3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="U30">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(-1,-1)_LION1_DCM_LMZC.png", "HY202103_D08_(-1,-1)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(-1,-1)_LION1_DCM_LMZC.png", "HY202103_D08_(-1,-1)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="U31">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(-1,-3)_LION1_DCM_LMZC.png", "HY202103_D08_(-1,-3)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(-1,-3)_LION1_DCM_LMZC.png", "HY202103_D08_(-1,-3)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="U32">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(-1,3)_LION1_DCM_LMZC.png", "HY202103_D08_(-1,3)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(-1,3)_LION1_DCM_LMZC.png", "HY202103_D08_(-1,3)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="U33">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(-3,-3)_LION1_DCM_LMZC.png", "HY202103_D08_(-3,-3)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(-3,-3)_LION1_DCM_LMZC.png", "HY202103_D08_(-3,-3)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="U34">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(-3,0)_LION1_DCM_LMZC.png", "HY202103_D08_(-3,0)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(-3,0)_LION1_DCM_LMZC.png", "HY202103_D08_(-3,0)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
         </is>
       </c>
       <c r="U35">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(-3,2)_LION1_DCM_LMZC.png", "HY202103_D08_(-3,2)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(-3,2)_LION1_DCM_LMZC.png", "HY202103_D08_(-3,2)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
         </is>
       </c>
       <c r="U36">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(-4,-1)_LION1_DCM_LMZC.png", "HY202103_D08_(-4,-1)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(-4,-1)_LION1_DCM_LMZC.png", "HY202103_D08_(-4,-1)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="U37">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(0,-4)_LION1_DCM_LMZC.png", "HY202103_D08_(0,-4)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(0,-4)_LION1_DCM_LMZC.png", "HY202103_D08_(0,-4)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="U38">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(0,0)_LION1_DCM_LMZC.png", "HY202103_D08_(0,0)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(0,0)_LION1_DCM_LMZC.png", "HY202103_D08_(0,0)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
         </is>
       </c>
       <c r="U39">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(0,2)_LION1_DCM_LMZC.png", "HY202103_D08_(0,2)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(0,2)_LION1_DCM_LMZC.png", "HY202103_D08_(0,2)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="U40">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(2,-1)_LION1_DCM_LMZC.png", "HY202103_D08_(2,-1)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(2,-1)_LION1_DCM_LMZC.png", "HY202103_D08_(2,-1)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -4623,7 +4623,7 @@
         </is>
       </c>
       <c r="U41">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(2,-3)_LION1_DCM_LMZC.png", "HY202103_D08_(2,-3)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(2,-3)_LION1_DCM_LMZC.png", "HY202103_D08_(2,-3)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="U42">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(2,2)_LION1_DCM_LMZC.png", "HY202103_D08_(2,2)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(2,2)_LION1_DCM_LMZC.png", "HY202103_D08_(2,2)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="U43">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D08/20190712_113254/HY202103_D08_(3,0)_LION1_DCM_LMZC.png", "HY202103_D08_(3,0)_LION1_DCM_LMZC")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D08/20190712_113254/HY202103_D08_(3,0)_LION1_DCM_LMZC.png", "HY202103_D08_(3,0)_LION1_DCM_LMZC")</f>
         <v/>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
         </is>
       </c>
       <c r="U44">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="U45">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="U46">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -5235,7 +5235,7 @@
         </is>
       </c>
       <c r="U47">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="U48">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="U49">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="U50">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-4,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-4,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
         </is>
       </c>
       <c r="U51">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D23_(0,-4)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D23_(0,-4)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
         </is>
       </c>
       <c r="U52">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(0,0)_LION1_DCM_LMZO.png", "HY202103_D23_(0,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(0,0)_LION1_DCM_LMZO.png", "HY202103_D23_(0,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
         </is>
       </c>
       <c r="U53">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(0,2)_LION1_DCM_LMZO.png", "HY202103_D23_(0,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(0,2)_LION1_DCM_LMZO.png", "HY202103_D23_(0,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -5949,7 +5949,7 @@
         </is>
       </c>
       <c r="U54">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
         </is>
       </c>
       <c r="U55">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
         </is>
       </c>
       <c r="U56">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(2,2)_LION1_DCM_LMZO.png", "HY202103_D23_(2,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(2,2)_LION1_DCM_LMZO.png", "HY202103_D23_(2,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="U57">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="U58">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
         </is>
       </c>
       <c r="U59">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="U60">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
         </is>
       </c>
       <c r="U61">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="U62">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="U63">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
         </is>
       </c>
       <c r="U64">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-4,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-4,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="U65">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D23_(0,-4)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D23_(0,-4)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="U66">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(0,0)_LION1_DCM_LMZO.png", "HY202103_D23_(0,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(0,0)_LION1_DCM_LMZO.png", "HY202103_D23_(0,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="U67">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(0,2)_LION1_DCM_LMZO.png", "HY202103_D23_(0,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(0,2)_LION1_DCM_LMZO.png", "HY202103_D23_(0,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
         </is>
       </c>
       <c r="U68">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -7479,7 +7479,7 @@
         </is>
       </c>
       <c r="U69">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
         </is>
       </c>
       <c r="U70">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(2,2)_LION1_DCM_LMZO.png", "HY202103_D23_(2,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(2,2)_LION1_DCM_LMZO.png", "HY202103_D23_(2,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -7683,7 +7683,7 @@
         </is>
       </c>
       <c r="U71">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190603_204847/HY202103_D23_(3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190603_204847/HY202103_D23_(3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -7785,7 +7785,7 @@
         </is>
       </c>
       <c r="U72">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="U73">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="U74">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -8091,7 +8091,7 @@
         </is>
       </c>
       <c r="U75">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -8193,7 +8193,7 @@
         </is>
       </c>
       <c r="U76">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -8295,7 +8295,7 @@
         </is>
       </c>
       <c r="U77">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="U78">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-4,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-4,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
         </is>
       </c>
       <c r="U79">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D24_(0,-4)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D24_(0,-4)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
         </is>
       </c>
       <c r="U80">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(0,0)_LION1_DCM_LMZO.png", "HY202103_D24_(0,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(0,0)_LION1_DCM_LMZO.png", "HY202103_D24_(0,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
         </is>
       </c>
       <c r="U81">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(0,2)_LION1_DCM_LMZO.png", "HY202103_D24_(0,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(0,2)_LION1_DCM_LMZO.png", "HY202103_D24_(0,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -8805,7 +8805,7 @@
         </is>
       </c>
       <c r="U82">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -8907,7 +8907,7 @@
         </is>
       </c>
       <c r="U83">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
         </is>
       </c>
       <c r="U84">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(2,2)_LION1_DCM_LMZO.png", "HY202103_D24_(2,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(2,2)_LION1_DCM_LMZO.png", "HY202103_D24_(2,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="U85">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -9213,7 +9213,7 @@
         </is>
       </c>
       <c r="U86">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -9315,7 +9315,7 @@
         </is>
       </c>
       <c r="U87">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
         </is>
       </c>
       <c r="U88">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -9519,7 +9519,7 @@
         </is>
       </c>
       <c r="U89">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="U90">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
         </is>
       </c>
       <c r="U91">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -9825,7 +9825,7 @@
         </is>
       </c>
       <c r="U92">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-4,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-4,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="U93">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D24_(0,-4)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D24_(0,-4)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -10029,7 +10029,7 @@
         </is>
       </c>
       <c r="U94">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(0,0)_LION1_DCM_LMZO.png", "HY202103_D24_(0,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(0,0)_LION1_DCM_LMZO.png", "HY202103_D24_(0,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -10131,7 +10131,7 @@
         </is>
       </c>
       <c r="U95">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(0,2)_LION1_DCM_LMZO.png", "HY202103_D24_(0,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(0,2)_LION1_DCM_LMZO.png", "HY202103_D24_(0,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
         </is>
       </c>
       <c r="U96">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -10335,7 +10335,7 @@
         </is>
       </c>
       <c r="U97">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -10437,7 +10437,7 @@
         </is>
       </c>
       <c r="U98">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(2,2)_LION1_DCM_LMZO.png", "HY202103_D24_(2,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(2,2)_LION1_DCM_LMZO.png", "HY202103_D24_(2,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
         </is>
       </c>
       <c r="U99">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190603_225101/HY202103_D24_(3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190603_225101/HY202103_D24_(3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -10554,7 +10554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10575,10 +10575,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Total Errors</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Total Entries</t>
         </is>
@@ -10595,8 +10600,11 @@
           <t>DCM_LMZC</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>43661</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10611,8 +10619,11 @@
           <t>DCM_LMZC</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="C3" s="2" t="n">
+        <v>43658</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10627,8 +10638,11 @@
           <t>DCM_LMZO</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>43611</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10643,29 +10657,92 @@
           <t>DCM_LMZO</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="D5" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
-        <v>28</v>
+      <c r="E5" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>D23</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DCM_LMZO</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>D24</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>DCM_LMZO</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="D7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
-        <v>28</v>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>D24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DCM_LMZO</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>43619</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>D24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DCM_LMZO</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>43620</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10679,7 +10756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10705,6 +10782,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Count</t>
         </is>
       </c>
@@ -10725,7 +10807,10 @@
           <t>IV. Error</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="E2" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10745,7 +10830,10 @@
           <t>IV. Error</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="E3" t="n">
         <v>14</v>
       </c>
     </row>
@@ -10973,7 +11061,7 @@
         </is>
       </c>
       <c r="U2">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -11075,7 +11163,7 @@
         </is>
       </c>
       <c r="U3">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -11177,7 +11265,7 @@
         </is>
       </c>
       <c r="U4">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D23_(-1,3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -11279,7 +11367,7 @@
         </is>
       </c>
       <c r="U5">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -11381,7 +11469,7 @@
         </is>
       </c>
       <c r="U6">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -11483,7 +11571,7 @@
         </is>
       </c>
       <c r="U7">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D23_(-3,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -11585,7 +11673,7 @@
         </is>
       </c>
       <c r="U8">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-4,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(-4,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -11687,7 +11775,7 @@
         </is>
       </c>
       <c r="U9">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D23_(0,-4)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D23_(0,-4)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -11789,7 +11877,7 @@
         </is>
       </c>
       <c r="U10">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(0,0)_LION1_DCM_LMZO.png", "HY202103_D23_(0,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(0,0)_LION1_DCM_LMZO.png", "HY202103_D23_(0,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -11891,7 +11979,7 @@
         </is>
       </c>
       <c r="U11">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(0,2)_LION1_DCM_LMZO.png", "HY202103_D23_(0,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(0,2)_LION1_DCM_LMZO.png", "HY202103_D23_(0,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -11993,7 +12081,7 @@
         </is>
       </c>
       <c r="U12">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -12095,7 +12183,7 @@
         </is>
       </c>
       <c r="U13">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D23_(2,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -12197,7 +12285,7 @@
         </is>
       </c>
       <c r="U14">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(2,2)_LION1_DCM_LMZO.png", "HY202103_D23_(2,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(2,2)_LION1_DCM_LMZO.png", "HY202103_D23_(2,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -12299,7 +12387,7 @@
         </is>
       </c>
       <c r="U15">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D23/20190531_072042/HY202103_D23_(3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D23/20190531_072042/HY202103_D23_(3,0)_LION1_DCM_LMZO.png", "HY202103_D23_(3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -12401,7 +12489,7 @@
         </is>
       </c>
       <c r="U16">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-1,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -12503,7 +12591,7 @@
         </is>
       </c>
       <c r="U17">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-1,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -12605,7 +12693,7 @@
         </is>
       </c>
       <c r="U18">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-1,3)_LION1_DCM_LMZO.png", "HY202103_D24_(-1,3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -12707,7 +12795,7 @@
         </is>
       </c>
       <c r="U19">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-3,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -12809,7 +12897,7 @@
         </is>
       </c>
       <c r="U20">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -12911,7 +12999,7 @@
         </is>
       </c>
       <c r="U21">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-3,2)_LION1_DCM_LMZO.png", "HY202103_D24_(-3,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -13013,7 +13101,7 @@
         </is>
       </c>
       <c r="U22">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-4,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(-4,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(-4,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -13115,7 +13203,7 @@
         </is>
       </c>
       <c r="U23">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D24_(0,-4)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(0,-4)_LION1_DCM_LMZO.png", "HY202103_D24_(0,-4)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -13217,7 +13305,7 @@
         </is>
       </c>
       <c r="U24">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(0,0)_LION1_DCM_LMZO.png", "HY202103_D24_(0,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(0,0)_LION1_DCM_LMZO.png", "HY202103_D24_(0,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -13319,7 +13407,7 @@
         </is>
       </c>
       <c r="U25">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(0,2)_LION1_DCM_LMZO.png", "HY202103_D24_(0,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(0,2)_LION1_DCM_LMZO.png", "HY202103_D24_(0,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -13421,7 +13509,7 @@
         </is>
       </c>
       <c r="U26">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-1)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(2,-1)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-1)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -13523,7 +13611,7 @@
         </is>
       </c>
       <c r="U27">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-3)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(2,-3)_LION1_DCM_LMZO.png", "HY202103_D24_(2,-3)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -13625,7 +13713,7 @@
         </is>
       </c>
       <c r="U28">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(2,2)_LION1_DCM_LMZO.png", "HY202103_D24_(2,2)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(2,2)_LION1_DCM_LMZO.png", "HY202103_D24_(2,2)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
@@ -13727,7 +13815,7 @@
         </is>
       </c>
       <c r="U29">
-        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_212454/HY202103/D24/20190531_151815/HY202103_D24_(3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(3,0)_LION1_DCM_LMZO")</f>
+        <f>HYPERLINK("C:/Users/User/PycharmProjects/pythonProject1/PE2/res/20240616_233856/HY202103/D24/20190531_151815/HY202103_D24_(3,0)_LION1_DCM_LMZO.png", "HY202103_D24_(3,0)_LION1_DCM_LMZO")</f>
         <v/>
       </c>
     </row>
